--- a/Project.xlsx
+++ b/Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos_Castillo\Test\1.BoM_Creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46E93630-BE0E-429E-8B5E-91269C38AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558EEC72-8033-4F31-B5E5-FCDE5D99F061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="4890" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t xml:space="preserve">SAP </t>
+  </si>
   <si>
     <t xml:space="preserve">Project No. </t>
   </si>
@@ -49,194 +52,194 @@
     <t>Priority</t>
   </si>
   <si>
+    <t>DAMASTA</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>DAVIMO</t>
+  </si>
+  <si>
+    <t>850 Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECO Cards </t>
+  </si>
+  <si>
+    <t>Fieldbus</t>
+  </si>
+  <si>
+    <t>IPC</t>
+  </si>
+  <si>
+    <t>Safety Barrier ACC</t>
+  </si>
+  <si>
+    <t>Safety Barrier SPE</t>
+  </si>
+  <si>
+    <t>PSB A</t>
+  </si>
+  <si>
+    <t>PSB B</t>
+  </si>
+  <si>
+    <t>TTB V1</t>
+  </si>
+  <si>
+    <t>TTB V2</t>
+  </si>
+  <si>
+    <t>TTB EX V1</t>
+  </si>
+  <si>
+    <t>TTB EX V2</t>
+  </si>
+  <si>
+    <t>TTB TN (Torque)</t>
+  </si>
+  <si>
+    <t>TB (Motor Current)</t>
+  </si>
+  <si>
+    <t>ETB (OPC)</t>
+  </si>
+  <si>
+    <t>TB MKM Creep</t>
+  </si>
+  <si>
+    <t>TB MKM</t>
+  </si>
+  <si>
+    <t>TTB MKM</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Stamp</t>
+  </si>
+  <si>
+    <t>TU Transmission Unit</t>
+  </si>
+  <si>
+    <t>RH Receiver Head</t>
+  </si>
+  <si>
+    <t>RU Receiver Unit</t>
+  </si>
+  <si>
+    <t>AC Antenna Cable</t>
+  </si>
+  <si>
+    <t>Support Frame</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Speed Ex</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>TSA Ex</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Milling Tool</t>
+  </si>
+  <si>
+    <t>ACC M625</t>
+  </si>
+  <si>
+    <t>ACC  M607</t>
+  </si>
+  <si>
+    <t>ACC  103.1</t>
+  </si>
+  <si>
+    <t>ACC M607 Ex</t>
+  </si>
+  <si>
+    <t>ACC/T S. 200.20-T</t>
+  </si>
+  <si>
+    <t>Displacement Sensor</t>
+  </si>
+  <si>
+    <t>Floating Shaft</t>
+  </si>
+  <si>
+    <t>Ultrasound UEB</t>
+  </si>
+  <si>
+    <t>Isolation Amplifier</t>
+  </si>
+  <si>
+    <t>Cube</t>
+  </si>
+  <si>
+    <t>Cube EX</t>
+  </si>
+  <si>
+    <t>OPC 1500</t>
+  </si>
+  <si>
+    <t>OPC 1400</t>
+  </si>
+  <si>
+    <t>OPC 1300</t>
+  </si>
+  <si>
+    <t>Oil Sensor Pump Unit</t>
+  </si>
+  <si>
+    <t>Prec. Angular</t>
+  </si>
+  <si>
+    <t>Kiln Reference</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>Creep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crank </t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaft Temp </t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>22-046-01</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Customer 22-046-01</t>
-  </si>
-  <si>
-    <t>Article 100629</t>
-  </si>
-  <si>
-    <t>Article 100090</t>
-  </si>
-  <si>
-    <t>Article 100574</t>
-  </si>
-  <si>
-    <t>Article 100787</t>
-  </si>
-  <si>
-    <t>Article 101287</t>
-  </si>
-  <si>
-    <t>Article 50000</t>
-  </si>
-  <si>
-    <t>Article 500958</t>
-  </si>
-  <si>
-    <t>Article 500574</t>
-  </si>
-  <si>
-    <t>Article 100624</t>
-  </si>
-  <si>
-    <t>Article 100811</t>
-  </si>
-  <si>
-    <t>Article 100022</t>
-  </si>
-  <si>
-    <t>Article 100028</t>
-  </si>
-  <si>
-    <t>Article 100431</t>
-  </si>
-  <si>
-    <t>Article 100177</t>
-  </si>
-  <si>
-    <t>Article 101050</t>
-  </si>
-  <si>
-    <t>Article 100776</t>
-  </si>
-  <si>
-    <t>Article 100100</t>
-  </si>
-  <si>
-    <t>Article 101036</t>
-  </si>
-  <si>
-    <t>Article 100524</t>
-  </si>
-  <si>
-    <t>Article 100522</t>
-  </si>
-  <si>
-    <t>Article 100798</t>
-  </si>
-  <si>
-    <t>Article 101290</t>
-  </si>
-  <si>
-    <t>Article 100047</t>
-  </si>
-  <si>
-    <t>Article 100009</t>
-  </si>
-  <si>
-    <t>Article 100010</t>
-  </si>
-  <si>
-    <t>Article 500068</t>
-  </si>
-  <si>
-    <t>Article 100417</t>
-  </si>
-  <si>
-    <t>Article 100856</t>
-  </si>
-  <si>
-    <t>Article 200013</t>
-  </si>
-  <si>
-    <t>Article 200079</t>
-  </si>
-  <si>
-    <t>Article 500605</t>
-  </si>
-  <si>
-    <t>Article 100058</t>
-  </si>
-  <si>
-    <t>Article 100699</t>
-  </si>
-  <si>
-    <t>Article 200171</t>
-  </si>
-  <si>
-    <t>Article 200021</t>
-  </si>
-  <si>
-    <t>Article 200022</t>
-  </si>
-  <si>
-    <t>Article 200106</t>
-  </si>
-  <si>
-    <t>Article 200082</t>
-  </si>
-  <si>
-    <t>Article 200155</t>
-  </si>
-  <si>
-    <t>Article 200033</t>
-  </si>
-  <si>
-    <t>Article 100769</t>
-  </si>
-  <si>
-    <t>Article 200208</t>
-  </si>
-  <si>
-    <t>Article 500671</t>
-  </si>
-  <si>
-    <t>Article 100094</t>
-  </si>
-  <si>
-    <t>Article 100929</t>
-  </si>
-  <si>
-    <t>Article 200055</t>
-  </si>
-  <si>
-    <t>Article 100147</t>
-  </si>
-  <si>
-    <t>Article 200142</t>
-  </si>
-  <si>
-    <t>Article 100539</t>
-  </si>
-  <si>
-    <t>Article 200117</t>
-  </si>
-  <si>
-    <t>Article 200160</t>
-  </si>
-  <si>
-    <t>Article 100133</t>
-  </si>
-  <si>
-    <t>Article 100864</t>
-  </si>
-  <si>
-    <t>Article 100863</t>
-  </si>
-  <si>
-    <t>Article 100102</t>
-  </si>
-  <si>
-    <t>Article 100862</t>
-  </si>
-  <si>
-    <t>Article 101172</t>
+    <t>BusyBee Dongles</t>
+  </si>
+  <si>
+    <t>21-254-01</t>
+  </si>
+  <si>
+    <t>Lehigh, Union Bridge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +313,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +353,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -674,6 +697,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -697,114 +733,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -815,7 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,9 +769,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,69 +832,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,6 +879,57 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1015,7 +937,14 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1023,6 +952,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1058,19 +1027,12 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1093,6 +1055,27 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1372,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,592 +1368,616 @@
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="51">
+      <c r="F1" s="32">
         <v>100629</v>
       </c>
-      <c r="G1" s="52">
+      <c r="G1" s="33">
         <v>100090</v>
       </c>
-      <c r="H1" s="53">
+      <c r="H1" s="34">
         <v>100574</v>
       </c>
-      <c r="I1" s="54">
+      <c r="I1" s="35">
         <v>100787</v>
       </c>
-      <c r="J1" s="55">
+      <c r="J1" s="36">
         <v>101287</v>
       </c>
-      <c r="K1" s="56">
+      <c r="K1" s="37">
         <v>50000</v>
       </c>
-      <c r="L1" s="57">
+      <c r="L1" s="49">
+        <v>100181</v>
+      </c>
+      <c r="M1" s="38">
         <v>500958</v>
       </c>
-      <c r="M1" s="58">
+      <c r="N1" s="39">
         <v>500574</v>
       </c>
-      <c r="N1" s="58">
+      <c r="O1" s="39">
         <v>500574</v>
       </c>
-      <c r="O1" s="59">
+      <c r="P1" s="40">
         <v>100624</v>
       </c>
-      <c r="P1" s="60">
+      <c r="Q1" s="41">
         <v>100811</v>
       </c>
-      <c r="Q1" s="60">
+      <c r="R1" s="41">
         <v>100022</v>
       </c>
-      <c r="R1" s="60">
+      <c r="S1" s="41">
         <v>100028</v>
       </c>
-      <c r="S1" s="60">
+      <c r="T1" s="41">
         <v>100431</v>
       </c>
-      <c r="T1" s="60">
+      <c r="U1" s="41">
         <v>100177</v>
       </c>
-      <c r="U1" s="60">
+      <c r="V1" s="41">
         <v>101050</v>
       </c>
-      <c r="V1" s="60">
+      <c r="W1" s="41">
         <v>100776</v>
       </c>
-      <c r="W1" s="60">
+      <c r="X1" s="41">
         <v>100100</v>
       </c>
-      <c r="X1" s="60">
+      <c r="Y1" s="41">
         <v>101036</v>
       </c>
-      <c r="Y1" s="61">
+      <c r="Z1" s="42">
         <v>100524</v>
       </c>
-      <c r="Z1" s="62">
+      <c r="AA1" s="43">
         <v>100522</v>
       </c>
-      <c r="AA1" s="63">
+      <c r="AB1" s="44">
         <v>100798</v>
       </c>
-      <c r="AB1" s="60">
+      <c r="AC1" s="41">
         <v>101290</v>
       </c>
-      <c r="AC1" s="60">
+      <c r="AD1" s="41">
         <v>100047</v>
       </c>
-      <c r="AD1" s="60">
+      <c r="AE1" s="41">
         <v>100009</v>
       </c>
-      <c r="AE1" s="60">
+      <c r="AF1" s="41">
         <v>100010</v>
       </c>
-      <c r="AF1" s="60">
+      <c r="AG1" s="41">
         <v>500068</v>
       </c>
-      <c r="AG1" s="60">
+      <c r="AH1" s="41">
         <v>100417</v>
       </c>
-      <c r="AH1" s="64">
+      <c r="AI1" s="45">
         <v>100856</v>
       </c>
-      <c r="AI1" s="65">
-        <v>200013</v>
-      </c>
-      <c r="AJ1" s="66">
-        <v>200079</v>
-      </c>
-      <c r="AK1" s="66">
-        <v>500605</v>
-      </c>
-      <c r="AL1" s="66">
+      <c r="AJ1" s="46">
+        <v>100029</v>
+      </c>
+      <c r="AK1" s="47">
+        <v>100178</v>
+      </c>
+      <c r="AL1" s="47">
         <v>100058</v>
       </c>
-      <c r="AM1" s="66">
+      <c r="AM1" s="47">
+        <v>100179</v>
+      </c>
+      <c r="AN1" s="47">
         <v>100699</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AO1" s="5">
         <v>200171</v>
       </c>
-      <c r="AO1" s="6">
+      <c r="AP1" s="6">
         <v>200021</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AQ1" s="6">
         <v>200022</v>
       </c>
-      <c r="AQ1" s="6">
+      <c r="AR1" s="6">
         <v>200106</v>
       </c>
-      <c r="AR1" s="5">
+      <c r="AS1" s="5">
         <v>200082</v>
       </c>
-      <c r="AS1" s="6">
+      <c r="AT1" s="6">
         <v>200155</v>
       </c>
-      <c r="AT1" s="6">
-        <v>200033</v>
-      </c>
-      <c r="AU1" s="5">
+      <c r="AU1" s="6">
+        <v>100611</v>
+      </c>
+      <c r="AV1" s="5">
         <v>100769</v>
       </c>
-      <c r="AV1" s="5">
+      <c r="AW1" s="5">
         <v>200208</v>
       </c>
-      <c r="AW1" s="5">
+      <c r="AX1" s="5">
         <v>500671</v>
       </c>
-      <c r="AX1" s="5">
+      <c r="AY1" s="5">
         <v>100094</v>
       </c>
-      <c r="AY1" s="7">
+      <c r="AZ1" s="7">
         <v>100929</v>
       </c>
-      <c r="AZ1" s="8">
+      <c r="BA1" s="8">
         <v>200055</v>
       </c>
-      <c r="BA1" s="5">
+      <c r="BB1" s="5">
         <v>100147</v>
       </c>
-      <c r="BB1" s="5">
+      <c r="BC1" s="5">
         <v>200142</v>
       </c>
-      <c r="BC1" s="5">
+      <c r="BD1" s="5">
         <v>100539</v>
       </c>
-      <c r="BD1" s="9">
-        <v>200117</v>
-      </c>
-      <c r="BE1" s="10">
+      <c r="BE1" s="9">
         <v>200160</v>
       </c>
-      <c r="BF1" s="11">
+      <c r="BF1" s="10">
         <v>100133</v>
       </c>
-      <c r="BG1" s="12">
+      <c r="BG1" s="11">
         <v>100864</v>
       </c>
-      <c r="BH1" s="12">
+      <c r="BH1" s="11">
         <v>100863</v>
       </c>
-      <c r="BI1" s="12">
+      <c r="BI1" s="11">
         <v>100102</v>
       </c>
-      <c r="BJ1" s="12">
+      <c r="BJ1" s="11">
         <v>100862</v>
       </c>
-      <c r="BK1" s="13">
+      <c r="BK1" s="12">
         <v>101172</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:63" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="H2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="J2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="K2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="L2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="Q2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="Z2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="AA2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="AB2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="AC2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AD2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AE2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AF2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="28" t="s">
+      <c r="AG2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="28" t="s">
+      <c r="AH2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AI2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AK2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AL2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AM2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AN2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AO2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AP2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AQ2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AR2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="20" t="s">
+      <c r="AS2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AT2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AU2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AV2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AW2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AX2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="20" t="s">
+      <c r="AY2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="20" t="s">
+      <c r="AZ2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="BA2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="30" t="s">
+      <c r="BB2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AZ2" s="24" t="s">
+      <c r="BC2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BD2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BE2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BF2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="31" t="s">
+      <c r="BG2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="BE2" s="32" t="s">
+      <c r="BH2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="18" t="s">
+      <c r="BI2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BJ2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BK2" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="BI2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK2" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:63" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>11073</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="36">
-        <v>44407</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="33">
+      <c r="A3" s="50">
+        <v>11123</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="53">
+        <v>44540</v>
+      </c>
+      <c r="E3" s="54">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="55">
+        <v>0</v>
+      </c>
+      <c r="H3" s="56">
+        <v>0</v>
+      </c>
+      <c r="I3" s="31">
+        <v>0</v>
+      </c>
+      <c r="J3" s="57">
+        <v>0</v>
+      </c>
+      <c r="K3" s="58">
+        <v>0</v>
+      </c>
+      <c r="L3" s="58">
+        <v>0</v>
+      </c>
+      <c r="M3" s="59">
+        <v>0</v>
+      </c>
+      <c r="N3" s="55">
+        <v>0</v>
+      </c>
+      <c r="O3" s="57">
+        <v>0</v>
+      </c>
+      <c r="P3" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="56">
+        <v>0</v>
+      </c>
+      <c r="R3" s="56">
+        <v>0</v>
+      </c>
+      <c r="S3" s="56">
+        <v>0</v>
+      </c>
+      <c r="T3" s="56">
+        <v>0</v>
+      </c>
+      <c r="U3" s="56">
+        <v>0</v>
+      </c>
+      <c r="V3" s="56">
+        <v>0</v>
+      </c>
+      <c r="W3" s="60">
+        <v>0</v>
+      </c>
+      <c r="X3" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="60">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="61">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="62">
         <v>2</v>
       </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="39">
-        <v>0</v>
-      </c>
-      <c r="I3" s="33">
-        <v>0</v>
-      </c>
-      <c r="J3" s="40">
-        <v>0</v>
-      </c>
-      <c r="K3" s="41">
-        <v>0</v>
-      </c>
-      <c r="L3" s="42">
-        <v>0</v>
-      </c>
-      <c r="M3" s="38">
-        <v>0</v>
-      </c>
-      <c r="N3" s="40">
-        <v>0</v>
-      </c>
-      <c r="O3" s="33">
-        <v>0</v>
-      </c>
-      <c r="P3" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="39">
-        <v>0</v>
-      </c>
-      <c r="R3" s="39">
-        <v>0</v>
-      </c>
-      <c r="S3" s="39">
-        <v>0</v>
-      </c>
-      <c r="T3" s="39">
-        <v>0</v>
-      </c>
-      <c r="U3" s="39">
-        <v>0</v>
-      </c>
-      <c r="V3" s="39">
-        <v>0</v>
-      </c>
-      <c r="W3" s="39">
-        <v>0</v>
-      </c>
-      <c r="X3" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="44">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="33">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="39">
+      <c r="AD3" s="63">
         <v>1</v>
       </c>
-      <c r="AO3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="39">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="43">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="47">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="48">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="48">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="48">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="49">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="50">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="33">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="39">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="39">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="39">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="39">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="40">
+      <c r="AE3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="64">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="55">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="56">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="60">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="56">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="56">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="59">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="56">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="56">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="56">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="60">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:BK3">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>F3&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D3">
-    <cfRule type="timePeriod" dxfId="3" priority="5" timePeriod="today">
+  <conditionalFormatting sqref="D1:D2">
+    <cfRule type="timePeriod" dxfId="13" priority="33" timePeriod="today">
       <formula>FLOOR(D1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="duplicateValues" dxfId="12" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="duplicateValues" dxfId="11" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="timePeriod" dxfId="8" priority="8" timePeriod="today">
+      <formula>FLOOR(D3,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:BK3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:BK3">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>F3="Ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:BK3">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>F3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
